--- a/AAAGameData/DataTables/Core/EntityGroupTable.xlsx
+++ b/AAAGameData/DataTables/Core/EntityGroupTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF09980B-5E37-4337-9ED8-4B4F9FF13740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,9 +180,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,9 +220,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,7 +292,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,11 +465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H11"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -592,13 +593,13 @@
         <v>11</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -706,7 +707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
